--- a/en/downloads/data-excel/1.3.1.1g.xlsx
+++ b/en/downloads/data-excel/1.3.1.1g.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\ПоказателиЦУР для Платформы\Национальные показатели ЦУР\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korozbaeva\Desktop\Показатели ЦУР для Платформы\Национальные показатели ЦУР\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -196,6 +196,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,11 +481,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -491,7 +493,7 @@
     <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -505,7 +507,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -522,8 +524,9 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
+      <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -572,8 +575,11 @@
       <c r="P3" s="11">
         <v>2019</v>
       </c>
+      <c r="Q3" s="15">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -622,8 +628,11 @@
       <c r="P4" s="2">
         <v>147363</v>
       </c>
+      <c r="Q4" s="2">
+        <v>160561</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -672,8 +681,11 @@
       <c r="P5" s="3">
         <v>2.2595232620525794</v>
       </c>
+      <c r="Q5" s="3">
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -721,6 +733,9 @@
       </c>
       <c r="P6" s="5">
         <v>20.5</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>21.8</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/1.3.1.1g.xlsx
+++ b/en/downloads/data-excel/1.3.1.1g.xlsx
@@ -481,9 +481,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -493,7 +495,7 @@
     <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -507,7 +509,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:17" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -525,8 +527,9 @@
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
       <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -578,8 +581,11 @@
       <c r="Q3" s="15">
         <v>2020</v>
       </c>
+      <c r="R3" s="15">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -631,8 +637,11 @@
       <c r="Q4" s="2">
         <v>160561</v>
       </c>
+      <c r="R4" s="2">
+        <v>233306</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -684,8 +693,11 @@
       <c r="Q5" s="3">
         <v>2.4</v>
       </c>
+      <c r="R5" s="3">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -736,6 +748,9 @@
       </c>
       <c r="Q6" s="5">
         <v>21.8</v>
+      </c>
+      <c r="R6" s="5">
+        <v>30.8</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/1.3.1.1g.xlsx
+++ b/en/downloads/data-excel/1.3.1.1g.xlsx
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
     <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -509,7 +509,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:18" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -528,8 +528,9 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -584,8 +585,11 @@
       <c r="R3" s="15">
         <v>2021</v>
       </c>
+      <c r="S3" s="15">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -640,8 +644,11 @@
       <c r="R4" s="2">
         <v>233306</v>
       </c>
+      <c r="S4" s="2">
+        <v>265803</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -696,8 +703,11 @@
       <c r="R5" s="3">
         <v>3.5</v>
       </c>
+      <c r="S5" s="3">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -751,6 +761,9 @@
       </c>
       <c r="R6" s="5">
         <v>30.8</v>
+      </c>
+      <c r="S6" s="5">
+        <v>33.6</v>
       </c>
     </row>
   </sheetData>

--- a/en/downloads/data-excel/1.3.1.1g.xlsx
+++ b/en/downloads/data-excel/1.3.1.1g.xlsx
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -197,7 +197,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -481,11 +480,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
@@ -495,7 +492,7 @@
     <col min="16" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>4</v>
       </c>
@@ -509,7 +506,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:19" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -526,11 +523,12 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>5</v>
       </c>
@@ -579,17 +577,20 @@
       <c r="P3" s="11">
         <v>2019</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="11">
         <v>2020</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="11">
         <v>2021</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="11">
         <v>2022</v>
       </c>
+      <c r="T3" s="11">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -647,8 +648,11 @@
       <c r="S4" s="2">
         <v>265803</v>
       </c>
+      <c r="T4" s="2">
+        <v>263951</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -706,8 +710,11 @@
       <c r="S5" s="3">
         <v>3.8</v>
       </c>
+      <c r="T5" s="3">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
@@ -764,6 +771,9 @@
       </c>
       <c r="S6" s="5">
         <v>33.6</v>
+      </c>
+      <c r="T6" s="5">
+        <v>32.299999999999997</v>
       </c>
     </row>
   </sheetData>
